--- a/data/light-reading-cloud/reading-cloud-account_structure.xlsx
+++ b/data/light-reading-cloud/reading-cloud-account_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="283">
   <si>
     <t>Class Name</t>
   </si>
@@ -600,27 +600,27 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>nickName</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>loginName</t>
+    <t>id</t>
   </si>
   <si>
     <t>headImgUrl</t>
   </si>
   <si>
-    <t>nickName</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
@@ -639,6 +639,12 @@
     <t>bookshelfService</t>
   </si>
   <si>
+    <t>commonQueueThreadPool</t>
+  </si>
+  <si>
+    <t>likeSeeMapper</t>
+  </si>
+  <si>
     <t>redisService</t>
   </si>
   <si>
@@ -651,48 +657,42 @@
     <t>cn.zealon.readingcloud.book.feign.client.BookClient</t>
   </si>
   <si>
-    <t>likeSeeMapper</t>
-  </si>
-  <si>
-    <t>commonQueueThreadPool</t>
+    <t>corePoolSize</t>
+  </si>
+  <si>
+    <t>keepAliveTime</t>
   </si>
   <si>
     <t>queueCapacity</t>
   </si>
   <si>
-    <t>corePoolSize</t>
-  </si>
-  <si>
-    <t>keepAliveTime</t>
-  </si>
-  <si>
     <t>maximumPoolSize</t>
   </si>
   <si>
+    <t>syncType</t>
+  </si>
+  <si>
+    <t>bookshelfMapper</t>
+  </si>
+  <si>
+    <t>bookshelf</t>
+  </si>
+  <si>
     <t>userId</t>
   </si>
   <si>
-    <t>syncType</t>
-  </si>
-  <si>
-    <t>bookshelf</t>
-  </si>
-  <si>
-    <t>bookshelfMapper</t>
-  </si>
-  <si>
     <t>MAPPER_LOCATIONS</t>
   </si>
   <si>
     <t>userBookshelfQueueThreadPool</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>bookId</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -708,16 +708,16 @@
     <t>lastChapterId</t>
   </si>
   <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>authorName</t>
+  </si>
+  <si>
+    <t>lastReadTime</t>
+  </si>
+  <si>
     <t>bookName</t>
-  </si>
-  <si>
-    <t>authorName</t>
-  </si>
-  <si>
-    <t>imgUrl</t>
-  </si>
-  <si>
-    <t>lastReadTime</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -7313,7 +7313,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8149,10 +8149,10 @@
         <v>121</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77">
@@ -8160,7 +8160,7 @@
         <v>121</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>239</v>
@@ -8171,7 +8171,7 @@
         <v>121</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>239</v>
@@ -8182,7 +8182,7 @@
         <v>121</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>239</v>
@@ -8193,10 +8193,10 @@
         <v>121</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
@@ -8204,10 +8204,10 @@
         <v>121</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82">
@@ -8215,10 +8215,10 @@
         <v>121</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83">
@@ -8226,21 +8226,21 @@
         <v>121</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85">
@@ -8248,7 +8248,7 @@
         <v>127</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>237</v>
@@ -8259,7 +8259,7 @@
         <v>127</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>237</v>
@@ -8270,7 +8270,7 @@
         <v>127</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>237</v>
@@ -8281,7 +8281,7 @@
         <v>127</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>237</v>
@@ -8289,13 +8289,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90">
@@ -8303,10 +8303,10 @@
         <v>186</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91">
@@ -8314,10 +8314,10 @@
         <v>186</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92">
@@ -8325,7 +8325,7 @@
         <v>186</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>239</v>
@@ -8336,7 +8336,7 @@
         <v>186</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>239</v>
@@ -8344,13 +8344,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95">
@@ -8358,10 +8358,10 @@
         <v>128</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96">
@@ -8369,10 +8369,10 @@
         <v>128</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97">
@@ -8380,7 +8380,7 @@
         <v>128</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>239</v>
@@ -8391,7 +8391,7 @@
         <v>128</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>239</v>
@@ -8402,7 +8402,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>239</v>
@@ -8413,7 +8413,7 @@
         <v>128</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>239</v>
@@ -8424,7 +8424,7 @@
         <v>128</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>239</v>
@@ -8435,7 +8435,7 @@
         <v>128</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>239</v>
@@ -8446,7 +8446,7 @@
         <v>128</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>239</v>
@@ -8454,13 +8454,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
@@ -8468,10 +8468,10 @@
         <v>131</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106">
@@ -8479,7 +8479,7 @@
         <v>131</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>239</v>
@@ -8487,13 +8487,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108">
@@ -8501,10 +8501,10 @@
         <v>137</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109">
@@ -8512,7 +8512,7 @@
         <v>137</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>239</v>
@@ -8523,7 +8523,7 @@
         <v>137</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>239</v>
@@ -8534,7 +8534,7 @@
         <v>137</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>239</v>
@@ -8545,7 +8545,7 @@
         <v>137</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>239</v>
@@ -8556,7 +8556,7 @@
         <v>137</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>239</v>
@@ -8567,7 +8567,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>239</v>
@@ -8578,7 +8578,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>239</v>
@@ -8589,10 +8589,10 @@
         <v>137</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>239</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117">
@@ -8600,10 +8600,10 @@
         <v>137</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118">
@@ -8611,10 +8611,10 @@
         <v>137</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119">
@@ -8622,21 +8622,21 @@
         <v>137</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121">
@@ -8644,7 +8644,7 @@
         <v>141</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>237</v>
@@ -8655,7 +8655,7 @@
         <v>141</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>237</v>
@@ -8666,7 +8666,7 @@
         <v>141</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>237</v>
@@ -8674,10 +8674,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>237</v>
@@ -8688,7 +8688,7 @@
         <v>142</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>237</v>
@@ -8699,7 +8699,7 @@
         <v>142</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>237</v>
@@ -8707,13 +8707,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128">
@@ -8721,10 +8721,10 @@
         <v>143</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129">
@@ -8732,7 +8732,7 @@
         <v>143</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>239</v>
@@ -8743,7 +8743,7 @@
         <v>143</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>239</v>
@@ -8754,7 +8754,7 @@
         <v>143</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>239</v>
@@ -8765,7 +8765,7 @@
         <v>143</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>239</v>
@@ -8776,7 +8776,7 @@
         <v>143</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>239</v>
@@ -8787,7 +8787,7 @@
         <v>143</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>239</v>
@@ -8798,7 +8798,7 @@
         <v>143</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>239</v>
@@ -8809,10 +8809,10 @@
         <v>143</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137">
@@ -8820,10 +8820,10 @@
         <v>143</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138">
@@ -8831,10 +8831,10 @@
         <v>143</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>239</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139">
@@ -8842,21 +8842,21 @@
         <v>143</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>281</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141">
@@ -8864,7 +8864,7 @@
         <v>151</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>237</v>
@@ -8875,7 +8875,7 @@
         <v>151</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>237</v>
@@ -8886,7 +8886,7 @@
         <v>151</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>237</v>
@@ -8897,7 +8897,7 @@
         <v>151</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>237</v>
@@ -8908,7 +8908,7 @@
         <v>151</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>237</v>
@@ -8916,13 +8916,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147">
@@ -8930,10 +8930,10 @@
         <v>157</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148">
@@ -8941,10 +8941,10 @@
         <v>157</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149">
@@ -8952,10 +8952,10 @@
         <v>157</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150">
@@ -8963,21 +8963,21 @@
         <v>157</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152">
@@ -8985,10 +8985,10 @@
         <v>166</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153">
@@ -8996,7 +8996,7 @@
         <v>166</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>239</v>
@@ -9007,7 +9007,7 @@
         <v>166</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>239</v>
@@ -9018,7 +9018,7 @@
         <v>166</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>239</v>
@@ -9029,7 +9029,7 @@
         <v>166</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>239</v>
@@ -9040,7 +9040,7 @@
         <v>166</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>239</v>
@@ -9051,7 +9051,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>239</v>
@@ -9062,7 +9062,7 @@
         <v>166</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>239</v>
@@ -9073,7 +9073,7 @@
         <v>166</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>239</v>
@@ -9084,7 +9084,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>239</v>
@@ -9095,7 +9095,7 @@
         <v>166</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>239</v>
@@ -9106,7 +9106,7 @@
         <v>166</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>239</v>
@@ -9117,7 +9117,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>239</v>
@@ -9128,7 +9128,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>239</v>
@@ -9139,7 +9139,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>239</v>
@@ -9150,7 +9150,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>239</v>
@@ -9161,10 +9161,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>239</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169">
@@ -9172,10 +9172,10 @@
         <v>166</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>282</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170">
@@ -9183,10 +9183,10 @@
         <v>166</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171">
@@ -9194,20 +9194,9 @@
         <v>166</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="B172" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C172" t="s" s="0">
         <v>239</v>
       </c>
     </row>
@@ -9822,7 +9811,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -9878,7 +9867,7 @@
         <v>57</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -9990,7 +9979,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>206</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -9998,13 +9987,13 @@
         <v>62</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
@@ -10012,13 +10001,13 @@
         <v>62</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>202</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -10026,13 +10015,13 @@
         <v>62</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>88</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18">
@@ -10040,13 +10029,13 @@
         <v>62</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
@@ -10074,7 +10063,7 @@
         <v>57</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -10088,7 +10077,7 @@
         <v>57</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -10124,13 +10113,13 @@
         <v>95</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -10138,13 +10127,13 @@
         <v>95</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>33</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
@@ -10172,7 +10161,7 @@
         <v>57</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -10194,13 +10183,13 @@
         <v>113</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -10208,13 +10197,13 @@
         <v>113</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -10222,13 +10211,13 @@
         <v>113</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -10236,13 +10225,13 @@
         <v>113</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>151</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33">
@@ -10256,7 +10245,7 @@
         <v>57</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -10264,13 +10253,13 @@
         <v>118</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35">
@@ -10284,7 +10273,7 @@
         <v>57</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -10334,13 +10323,13 @@
         <v>128</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
@@ -10348,7 +10337,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>57</v>
@@ -10368,7 +10357,7 @@
         <v>57</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -10376,7 +10365,7 @@
         <v>128</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>57</v>
@@ -10404,7 +10393,7 @@
         <v>137</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>57</v>
@@ -10418,7 +10407,7 @@
         <v>137</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>57</v>
@@ -10446,7 +10435,7 @@
         <v>143</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>57</v>
@@ -10460,13 +10449,13 @@
         <v>143</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -10474,13 +10463,13 @@
         <v>143</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -10488,7 +10477,7 @@
         <v>143</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>57</v>
@@ -10530,13 +10519,13 @@
         <v>166</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -10544,13 +10533,13 @@
         <v>166</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -10558,7 +10547,7 @@
         <v>166</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>57</v>
@@ -10572,13 +10561,13 @@
         <v>166</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -10586,13 +10575,13 @@
         <v>166</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -10606,7 +10595,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
